--- a/src/main/resources/RunnedScenarios.xlsx
+++ b/src/main/resources/RunnedScenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="113">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -281,6 +281,84 @@
   </si>
   <si>
     <t>2021-10-23 21.23.23</t>
+  </si>
+  <si>
+    <t>2022-04-11 01.07.32</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.40.04</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.41.39</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.42.45</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.43.11</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.53.17</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.54.23</t>
+  </si>
+  <si>
+    <t>2022-04-22 06.56.51</t>
+  </si>
+  <si>
+    <t>User should be able to read PDF files</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.33</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.36</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.38</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.45</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.47</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.54</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.14.59</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.15.02</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.15.10</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.23.25</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.29.16</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.29.25</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.29.36</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.37.21</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.37.29</t>
+  </si>
+  <si>
+    <t>2022-04-24 11.37.40</t>
   </si>
 </sst>
 </file>
@@ -454,7 +532,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
@@ -1625,6 +1703,410 @@
         <v>18</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
